--- a/classification/droptc/bert-base-uncased/freeze/90995999/prediction.xlsx
+++ b/classification/droptc/bert-base-uncased/freeze/90995999/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.490662693977356</v>
+        <v>0.3756179511547089</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6873584985733032</v>
+        <v>0.6130886673927307</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7566469311714172</v>
+        <v>0.4743120968341827</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7200934290885925</v>
+        <v>0.8872988224029541</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5671968460083008</v>
+        <v>0.421800971031189</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.685874342918396</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6259039044380188</v>
+        <v>0.580757200717926</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.6161018013954163</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9045897126197815</v>
+        <v>0.3905240297317505</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7189790606498718</v>
+        <v>0.6309899091720581</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7922397255897522</v>
+        <v>0.66060471534729</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8294130563735962</v>
+        <v>0.6759957075119019</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7710443139076233</v>
+        <v>0.6270884275436401</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.4392843246459961</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.8192753791809082</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.559985876083374</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4121190905570984</v>
+        <v>0.7103683352470398</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.8208057880401611</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8184670805931091</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.858244001865387</v>
+        <v>0.6481713056564331</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3306435942649841</v>
+        <v>0.6230666041374207</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.353993684053421</v>
+        <v>0.3924507200717926</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5484864711761475</v>
+        <v>0.7343950271606445</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5361296534538269</v>
+        <v>0.5827997326850891</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.8520855307579041</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9107267260551453</v>
+        <v>0.6847136616706848</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.3819183707237244</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.882060706615448</v>
+        <v>0.8352515697479248</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8114169239997864</v>
+        <v>0.7740396857261658</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7081098556518555</v>
+        <v>0.393639862537384</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.897392213344574</v>
+        <v>0.3726374804973602</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.5979554057121277</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.3071880042552948</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8044729828834534</v>
+        <v>0.9067567586898804</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7045561671257019</v>
+        <v>0.8137304186820984</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7929969429969788</v>
+        <v>0.8379749655723572</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8707226514816284</v>
+        <v>0.4166634082794189</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.670402467250824</v>
+        <v>0.709125816822052</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5718258023262024</v>
+        <v>0.7986016869544983</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6284987926483154</v>
+        <v>0.8641490936279297</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4069806933403015</v>
+        <v>0.7273179292678833</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7054246068000793</v>
+        <v>0.4409831762313843</v>
       </c>
     </row>
     <row r="45">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.471246600151062</v>
+        <v>0.276126503944397</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8250665068626404</v>
+        <v>0.8026061058044434</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6737126708030701</v>
+        <v>0.6815528273582458</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6288363337516785</v>
+        <v>0.427789568901062</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6519913673400879</v>
+        <v>0.6267064213752747</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6126035451889038</v>
+        <v>0.3140872418880463</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8335769772529602</v>
+        <v>0.5441503524780273</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4078623354434967</v>
+        <v>0.9234394431114197</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6440590023994446</v>
+        <v>0.6803210377693176</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.610332727432251</v>
+        <v>0.9307368993759155</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6725332140922546</v>
+        <v>0.3146596848964691</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6209896802902222</v>
+        <v>0.8981800079345703</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2746850550174713</v>
+        <v>0.7350233793258667</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8586931824684143</v>
+        <v>0.6227557063102722</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.327372819185257</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6260229349136353</v>
+        <v>0.369731217622757</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6803908348083496</v>
+        <v>0.7507575750350952</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7562181949615479</v>
+        <v>0.8000446557998657</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.882060706615448</v>
+        <v>0.5642579793930054</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.7451589107513428</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.7384588718414307</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6921214461326599</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6518977880477905</v>
+        <v>0.3146596848964691</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6540703177452087</v>
+        <v>0.8266518115997314</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8370208740234375</v>
+        <v>0.598341703414917</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7261727452278137</v>
+        <v>0.6730430126190186</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7938928008079529</v>
+        <v>0.8085357546806335</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7410008311271667</v>
+        <v>0.7581950426101685</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6685434579849243</v>
+        <v>0.7142369151115417</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9038986563682556</v>
+        <v>0.6550124287605286</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7260522246360779</v>
+        <v>0.7313413619995117</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7317559719085693</v>
+        <v>0.6670413017272949</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8463159203529358</v>
+        <v>0.9282764792442322</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8536593317985535</v>
+        <v>0.8777374625205994</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7989922165870667</v>
+        <v>0.8034985661506653</v>
       </c>
     </row>
     <row r="82">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4271019101142883</v>
+        <v>0.4895305335521698</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.557959258556366</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7149141430854797</v>
+        <v>0.7418437600135803</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3268075287342072</v>
+        <v>0.7257668972015381</v>
       </c>
     </row>
     <row r="86">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6917718648910522</v>
+        <v>0.7764328718185425</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8272379636764526</v>
+        <v>0.4159426689147949</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6623983979225159</v>
+        <v>0.5872072577476501</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.7589641213417053</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.5671526193618774</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8752297759056091</v>
+        <v>0.3756179511547089</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4321354329586029</v>
+        <v>0.5486942529678345</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7834616303443909</v>
+        <v>0.5941745042800903</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9608252644538879</v>
+        <v>0.6179897785186768</v>
       </c>
     </row>
     <row r="95">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8118965625762939</v>
+        <v>0.3323594629764557</v>
       </c>
     </row>
     <row r="96">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5722142457962036</v>
+        <v>0.3819183707237244</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6983257532119751</v>
+        <v>0.3206075727939606</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.8491826057434082</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5755126476287842</v>
+        <v>0.7187926769256592</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7096242904663086</v>
+        <v>0.8462746143341064</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5067138671875</v>
+        <v>0.8794494271278381</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7074151635169983</v>
+        <v>0.7382196187973022</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.457660973072052</v>
+        <v>0.551842987537384</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7476043701171875</v>
+        <v>0.8466043472290039</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7846715450286865</v>
+        <v>0.3548774123191833</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8260906934738159</v>
+        <v>0.9506509900093079</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5762776732444763</v>
+        <v>0.5893751382827759</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5828590989112854</v>
+        <v>0.7281208038330078</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.6253210306167603</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4207332730293274</v>
+        <v>0.7605344653129578</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6926071047782898</v>
+        <v>0.5955832600593567</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.486390620470047</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5328977704048157</v>
+        <v>0.4107606410980225</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3043346703052521</v>
+        <v>0.4454089105129242</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.3337767124176025</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8068639636039734</v>
+        <v>0.6904007792472839</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6652425527572632</v>
+        <v>0.597974419593811</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3175888359546661</v>
+        <v>0.8488203287124634</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6620946526527405</v>
+        <v>0.8371068835258484</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8647841811180115</v>
+        <v>0.7270026803016663</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7614847421646118</v>
+        <v>0.4890550076961517</v>
       </c>
     </row>
     <row r="122">
@@ -3843,14 +3843,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3705701231956482</v>
+        <v>0.3811469674110413</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.797533392906189</v>
+        <v>0.6490806937217712</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9018098115921021</v>
+        <v>0.5319084525108337</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3153397142887115</v>
+        <v>0.7649523019790649</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7293035984039307</v>
+        <v>0.7886540293693542</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.4107606410980225</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7714985013008118</v>
+        <v>0.6981529593467712</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5525924563407898</v>
+        <v>0.9234394431114197</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6111173629760742</v>
+        <v>0.6286821961402893</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.7023305296897888</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7970415353775024</v>
+        <v>0.3400000333786011</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.784224808216095</v>
+        <v>0.7746750712394714</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7282664179801941</v>
+        <v>0.6953343749046326</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8868401646614075</v>
+        <v>0.445897251367569</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.3819183707237244</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5518166422843933</v>
+        <v>0.7162228226661682</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.759843647480011</v>
+        <v>0.5151576399803162</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8573207855224609</v>
+        <v>0.4454089105129242</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3697643876075745</v>
+        <v>0.7310036420822144</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7601314783096313</v>
+        <v>0.8072422742843628</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5919524431228638</v>
+        <v>0.6971533894538879</v>
       </c>
     </row>
     <row r="143">
@@ -4431,14 +4431,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7240288257598877</v>
+        <v>0.3584505915641785</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9049091935157776</v>
+        <v>0.6257855892181396</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.379835844039917</v>
+        <v>0.8299896121025085</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4246189892292023</v>
+        <v>0.3124853074550629</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.8653919696807861</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4576249718666077</v>
+        <v>0.679331362247467</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6839842796325684</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3433354496955872</v>
+        <v>0.4107606410980225</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6579011678695679</v>
+        <v>0.3811469674110413</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7369323968887329</v>
+        <v>0.7794249653816223</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7374277710914612</v>
+        <v>0.5422571301460266</v>
       </c>
     </row>
     <row r="154">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7626975774765015</v>
+        <v>0.6187636852264404</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3801847696304321</v>
+        <v>0.4954868853092194</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6145060062408447</v>
+        <v>0.8027300238609314</v>
       </c>
     </row>
     <row r="157">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7255806922912598</v>
+        <v>0.4105463325977325</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8444327712059021</v>
+        <v>0.3756179511547089</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4688326120376587</v>
+        <v>0.6588273644447327</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5629863142967224</v>
+        <v>0.7488027215003967</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5346721410751343</v>
+        <v>0.9005563855171204</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9301773309707642</v>
+        <v>0.7114664912223816</v>
       </c>
     </row>
     <row r="163">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6674061417579651</v>
+        <v>0.537032425403595</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.68412184715271</v>
+        <v>0.6062440276145935</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6451618075370789</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6269026398658752</v>
+        <v>0.5079020857810974</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7140589952468872</v>
+        <v>0.3071880042552948</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.6257855892181396</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8616759777069092</v>
+        <v>0.2883644700050354</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.8151410818099976</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.437300056219101</v>
+        <v>0.7212496399879456</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8192811012268066</v>
+        <v>0.3337767124176025</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3000292479991913</v>
+        <v>0.5484001040458679</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8341501951217651</v>
+        <v>0.6907623410224915</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5952574014663696</v>
+        <v>0.5157814621925354</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5513302087783813</v>
+        <v>0.4741868376731873</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7109676003456116</v>
+        <v>0.7023812532424927</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.2761517763137817</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6451894044876099</v>
+        <v>0.5935793519020081</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3085410296916962</v>
+        <v>0.8872988224029541</v>
       </c>
     </row>
     <row r="181">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3098060488700867</v>
+        <v>0.6957383751869202</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.732082724571228</v>
+        <v>0.7449579834938049</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3678449988365173</v>
+        <v>0.7276089787483215</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.6640104055404663</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7610421776771545</v>
+        <v>0.7270026803016663</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4783370792865753</v>
+        <v>0.5756363868713379</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5014992952346802</v>
+        <v>0.3706710636615753</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8508758544921875</v>
+        <v>0.7504167556762695</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.2929885387420654</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4298675954341888</v>
+        <v>0.9011306166648865</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8011881113052368</v>
+        <v>0.5493853688240051</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4789687097072601</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6837407350540161</v>
+        <v>0.3320401012897491</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5662136673927307</v>
+        <v>0.7253437042236328</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.829389750957489</v>
+        <v>0.7841339111328125</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6992573142051697</v>
+        <v>0.7406004071235657</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9329718351364136</v>
+        <v>0.709837019443512</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4429530799388885</v>
+        <v>0.7550986409187317</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7625828385353088</v>
+        <v>0.8903205990791321</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.453845888376236</v>
+        <v>0.481416255235672</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6824764609336853</v>
+        <v>0.6257855892181396</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.7524481415748596</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.5851491689682007</v>
       </c>
     </row>
     <row r="205">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8830776214599609</v>
+        <v>0.6177538633346558</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.6041008830070496</v>
+        <v>0.4428923428058624</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3361645042896271</v>
+        <v>0.7817588448524475</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7532668113708496</v>
+        <v>0.6388739347457886</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.9022185802459717</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7079700827598572</v>
+        <v>0.6161017417907715</v>
       </c>
     </row>
   </sheetData>
